--- a/old.xlsx
+++ b/old.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\visha\OneDrive\Desktop\gittutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/862ae10d10c26888/Desktop/gittutorial/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA89207-6449-4E19-AA7B-8BAF89CD2A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{0FA89207-6449-4E19-AA7B-8BAF89CD2A17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{20142689-BA02-4254-8EE6-1994C3C65914}"/>
   <bookViews>
     <workbookView xWindow="1116" yWindow="1116" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>vishal1</t>
+    <t>chutiya</t>
   </si>
 </sst>
 </file>
@@ -347,7 +347,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
